--- a/biology/Zoologie/Campagnol_sylvestre/Campagnol_sylvestre.xlsx
+++ b/biology/Zoologie/Campagnol_sylvestre/Campagnol_sylvestre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microtus pinetorum
 Le Campagnol sylvestre (Microtus pinetorum) est une espèce de rongeurs de la famille des Cricétidés. C'est un micromammifère nord américain. Ce campagnol est proche de la souris  dont il se différencie par une très courte queue et par des oreilles cachées sous le pelage.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’adulte est couvert d'une fourrure fournie, de couleur brun rougeâtre (plus pâle sur la face ventrale).
 Il mesure de 11 à 13 cm de long, pour un poids variant de 19 à 37 g chez l'adulte.
@@ -547,9 +561,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est considéré comme menacé[1] voire en danger de disparition à cause de l'artificialisation et la fragmentation des forêts, et de la croissance des aires agricoles, urbaines et industrielles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est considéré comme menacé voire en danger de disparition à cause de l'artificialisation et la fragmentation des forêts, et de la croissance des aires agricoles, urbaines et industrielles.
 Son alimentation estivale est constituée principalement d'herbe, et notamment de carex. En hiver il mange surtout des branches, des brindilles, des morceaux d'écorce et des racines.
 Comme d'autres rongeurs, il peut être vecteur de quelques maladies (zoonoses) transmissibles à l'Homme et être vecteur de tiques porteuses de la maladie de Lyme (bien que ce soit la souris à pattes blanches qui semble en être le premier vecteur en Amérique du Nord).
 </t>
